--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -723,6 +723,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -723,7 +723,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.487269529695179</v>
+        <v>0.4888093072584809</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001180637544273999</v>
+        <v>-0.001179245283018826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3326405057494176</v>
+        <v>0.3321149590781733</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003549945764717566</v>
+        <v>0.002375061850569127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09493525163518875</v>
+        <v>0.09448583995454324</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006697674418604582</v>
+        <v>0.000561902978085671</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05454519075677589</v>
+        <v>0.05452661957080275</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002312940904360072</v>
+        <v>0.001390981801321578</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03060952216343876</v>
+        <v>0.03006327413799969</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01978361669242656</v>
+        <v>0.003153579312519694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00197313931637777</v>
+        <v>0.0004361118291857924</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4888093072584809</v>
+        <v>0.4880200498719717</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001179245283018826</v>
+        <v>-0.01062573789846522</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3321149590781733</v>
+        <v>0.3327586326715115</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002375061850569127</v>
+        <v>-0.006121038602033724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09448583995454324</v>
+        <v>0.09449772025576601</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000561902978085671</v>
+        <v>-0.009921377761138106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05452661957080275</v>
+        <v>0.05457866270588614</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001390981801321578</v>
+        <v>-0.007639773121889015</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03006327413799969</v>
+        <v>0.03014493449486465</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003153579312519694</v>
+        <v>-0.04306821754165346</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0004361118291857924</v>
+        <v>-0.009875206352074395</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4880200498719717</v>
+        <v>0.4876501223183441</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01062573789846522</v>
+        <v>0.003977724741447641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3327586326715115</v>
+        <v>0.3340203238596702</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006121038602033724</v>
+        <v>-0.003476706069335589</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09449772025576601</v>
+        <v>0.0944933136466946</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009921377761138106</v>
+        <v>-0.01739459255057685</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05457866270588614</v>
+        <v>0.05470188652277724</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007639773121889015</v>
+        <v>0.003849294296045747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03014493449486465</v>
+        <v>0.02913435365251381</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04306821754165346</v>
+        <v>0.0134691195795007</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009875206352074395</v>
+        <v>-0.0002622474671745145</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4876501223183441</v>
+        <v>0.4897182876556266</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003977724741447641</v>
+        <v>0.001980982567353573</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3340203238596702</v>
+        <v>0.3329463477088175</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003476706069335589</v>
+        <v>-0.005980861244019087</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0944933136466946</v>
+        <v>0.09287399692751711</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01739459255057685</v>
+        <v>0.005580142389840281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05470188652277724</v>
+        <v>0.05492685461105393</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003849294296045747</v>
+        <v>0.003602138043225622</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02913435365251381</v>
+        <v>0.0295345130969849</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0134691195795007</v>
+        <v>-0.004213938411669504</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0002622474671745145</v>
+        <v>-0.0004295348960403622</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4897182876556266</v>
+        <v>0.4908992694130402</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001980982567353573</v>
+        <v>0.0003954132068011429</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3329463477088175</v>
+        <v>0.3310972596284619</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005980861244019087</v>
+        <v>-0.01022864019253888</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09287399692751711</v>
+        <v>0.09343237952211109</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005580142389840281</v>
+        <v>-0.001339456563337227</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05492685461105393</v>
+        <v>0.05514839688456574</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003602138043225622</v>
+        <v>0.001042028482111768</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0295345130969849</v>
+        <v>0.0294226945518211</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004213938411669504</v>
+        <v>-0.04427083333333326</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0004295348960403622</v>
+        <v>-0.004562816303544048</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4908992694130402</v>
+        <v>0.4933444174184345</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003954132068011429</v>
+        <v>0.003162055335968361</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3310972596284619</v>
+        <v>0.3292127220665661</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01022864019253888</v>
+        <v>0.0009118541033432681</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09343237952211109</v>
+        <v>0.09373492615741454</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001339456563337227</v>
+        <v>-0.00249089863958607</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05514839688456574</v>
+        <v>0.05545891191231257</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001042028482111768</v>
+        <v>0.0005783021050198567</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0294226945518211</v>
+        <v>0.02824902244527233</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04427083333333326</v>
+        <v>0.006811989100817373</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004562816303544048</v>
+        <v>0.001851196157517165</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4933444174184345</v>
+        <v>0.4939899275103433</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003162055335968361</v>
+        <v>-0.001576044129235621</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3292127220665661</v>
+        <v>0.3289040501242735</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009118541033432681</v>
+        <v>0.01224820325943932</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09373492615741454</v>
+        <v>0.09332867227786038</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00249089863958607</v>
+        <v>0.003457548981943948</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05545891191231257</v>
+        <v>0.05538844903379138</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0005783021050198567</v>
+        <v>0.001733903594959951</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02824902244527233</v>
+        <v>0.02838890105373147</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006811989100817373</v>
+        <v>0.007442489851150258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001851196157517165</v>
+        <v>0.003879944528317969</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4939899275103433</v>
+        <v>0.4913051408920505</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001576044129235621</v>
+        <v>0.003946329913180779</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3289040501242735</v>
+        <v>0.3316457666055673</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01224820325943932</v>
+        <v>0.01829999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09332867227786038</v>
+        <v>0.09328940302486449</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003457548981943948</v>
+        <v>0.01722817764165385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05538844903379138</v>
+        <v>0.05527004256545857</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001733903594959951</v>
+        <v>0.00300023078698386</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02838890105373147</v>
+        <v>0.02848964691205902</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007442489851150258</v>
+        <v>0.03425117528542643</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003879944528317969</v>
+        <v>0.01075680288378744</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4913051408920505</v>
+        <v>0.4879947299476781</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003946329913180779</v>
+        <v>-0.005110062893081802</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3316457666055673</v>
+        <v>0.3341208124159202</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01829999999999998</v>
+        <v>-0.001964057743297554</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09328940302486449</v>
+        <v>0.09388668882713572</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01722817764165385</v>
+        <v>-0.007715468573579409</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05527004256545857</v>
+        <v>0.05484589892504058</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00300023078698386</v>
+        <v>0.0005752416014725981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02848964691205902</v>
+        <v>0.02915186988422543</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03425117528542643</v>
+        <v>-0.01396103896103895</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01075680288378744</v>
+        <v>-0.004249736875979626</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4879947299476781</v>
+        <v>0.4875731035841905</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005110062893081802</v>
+        <v>0.00276570525483999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3341208124159202</v>
+        <v>0.3348877647301861</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001964057743297554</v>
+        <v>-0.001967922857423865</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09388668882713572</v>
+        <v>0.09355991404685092</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007715468573579409</v>
+        <v>0.003223971173905049</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05484589892504058</v>
+        <v>0.05511165861568791</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0005752416014725981</v>
+        <v>-0.002414625733011433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02915186988422543</v>
+        <v>0.02886755902308454</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01396103896103895</v>
+        <v>-0.0118538030951596</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004249736875979626</v>
+        <v>0.000515820284157531</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4875731035841905</v>
+        <v>0.4886695214274901</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00276570525483999</v>
+        <v>0.005122143420015934</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3348877647301861</v>
+        <v>0.3340564183666554</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001967922857423865</v>
+        <v>-0.003352065463866793</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09355991404685092</v>
+        <v>0.09381315778306562</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003223971173905049</v>
+        <v>-0.009451795841209809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05511165861568791</v>
+        <v>0.05495024013812296</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002414625733011433</v>
+        <v>0.004840940525587811</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02886755902308454</v>
+        <v>0.0285106622846658</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0118538030951596</v>
+        <v>0.01632789070309881</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000515820284157531</v>
+        <v>0.001228083398199908</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4886695214274901</v>
+        <v>0.489047130225389</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005122143420015934</v>
+        <v>0.001956181533646406</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3340564183666554</v>
+        <v>0.3325166015987633</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003352065463866793</v>
+        <v>0.007381889763779625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09381315778306562</v>
+        <v>0.09424660431141206</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009451795841209809</v>
+        <v>-0.0001869857890800519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05495024013812296</v>
+        <v>0.05480053850167384</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004840940525587811</v>
+        <v>0.0004594004823705866</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0285106622846658</v>
+        <v>0.02938912536276169</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01632789070309881</v>
+        <v>-0.003854802441374816</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001228083398199908</v>
+        <v>0.003305529208806446</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.489047130225389</v>
+        <v>0.4883894097314794</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001956181533646406</v>
+        <v>0.003514252245216731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3325166015987633</v>
+        <v>0.3338675934144865</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007381889763779625</v>
+        <v>-0.0007816316560820269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09424660431141206</v>
+        <v>0.09391853108797726</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0001869857890800519</v>
+        <v>0.00542360201982417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05480053850167384</v>
+        <v>0.05464508297759559</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0004594004823705866</v>
+        <v>0.001721960739295092</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02938912536276169</v>
+        <v>0.02917938278846124</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003854802441374816</v>
+        <v>0.00515962592712027</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003305529208806446</v>
+        <v>0.00220939022209965</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4883894097314794</v>
+        <v>0.4887527150562552</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003514252245216731</v>
+        <v>0.001168679392286709</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3338675934144865</v>
+        <v>0.3328790494108923</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0007816316560820269</v>
+        <v>-0.001076215634478128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09391853108797726</v>
+        <v>0.09432988528495877</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00542360201982417</v>
+        <v>-0.003160438743260774</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05464508297759559</v>
+        <v>0.05463306969834378</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001721960739295092</v>
+        <v>0.0003439183767051102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02917938278846124</v>
+        <v>0.02940528054954993</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00515962592712027</v>
+        <v>0.006709265175719015</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00220939022209965</v>
+        <v>0.0001308989059607413</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4887527150562552</v>
+        <v>0.489259866700984</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001168679392286709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3328790494108923</v>
+        <v>0.3324772788614663</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001076215634478128</v>
+        <v>0.004015670910871849</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09432988528495877</v>
+        <v>0.09401945441713461</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003160438743260774</v>
+        <v>-0.0007459903021259651</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05463306969834378</v>
+        <v>0.05464470608274609</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003439183767051102</v>
+        <v>-0.0006876002750401122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02940528054954993</v>
+        <v>0.02959869393766897</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006709265175719015</v>
+        <v>-0.01650269755633149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0001308989059607413</v>
+        <v>0.0007389497269956191</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.489259866700984</v>
+        <v>0.4873437643162154</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.003110419906687589</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3324772788614663</v>
+        <v>0.3321492881704975</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004015670910871849</v>
+        <v>0.009660421545667264</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09401945441713461</v>
+        <v>0.09696413645834827</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007459903021259651</v>
+        <v>0.00683945284377252</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05464470608274609</v>
+        <v>0.05423255112388719</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0006876002750401122</v>
+        <v>0.003332950235604981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02959869393766897</v>
+        <v>0.02931025993105155</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01650269755633149</v>
+        <v>0.01531100478468894</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007389497269956191</v>
+        <v>0.006017251448684036</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4873437643162154</v>
+        <v>0.4880583390011705</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003110419906687589</v>
+        <v>0.003100775193798366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3321492881704975</v>
+        <v>0.3313783702888761</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009660421545667264</v>
+        <v>0.007909383849233453</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09696413645834827</v>
+        <v>0.09692717145575572</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00683945284377252</v>
+        <v>0.003595182455509605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05423255112388719</v>
+        <v>0.05422455587076958</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003332950235604981</v>
+        <v>0.002639430801010034</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02931025993105155</v>
+        <v>0.0294115633834281</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01531100478468894</v>
+        <v>0.021580450650587</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006017251448684036</v>
+        <v>0.005260665542018428</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4880583390011705</v>
+        <v>0.487009703028521</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003100775193798366</v>
+        <v>0.002318392581143858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3313783702888761</v>
+        <v>0.3322515049753169</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007909383849233453</v>
+        <v>-0.002325130788606744</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09692717145575572</v>
+        <v>0.09676658567913463</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003595182455509605</v>
+        <v>0.003582303421099775</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05422455587076958</v>
+        <v>0.05408316439437318</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002639430801010034</v>
+        <v>-0.0004578230513907489</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0294115633834281</v>
+        <v>0.02988904192265433</v>
       </c>
       <c r="E6" s="1">
-        <v>0.021580450650587</v>
+        <v>0.005902454178316363</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005260665542018428</v>
+        <v>0.0008548569306241482</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.487009703028521</v>
+        <v>0.4877218503070156</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002318392581143858</v>
+        <v>-0.002698535080955966</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3322515049753169</v>
+        <v>0.3311958517023161</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002325130788606744</v>
+        <v>0.00155369974752384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09676658567913463</v>
+        <v>0.09703028593764688</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003582303421099775</v>
+        <v>0.0005354274495805722</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05408316439437318</v>
+        <v>0.05401223114488859</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0004578230513907489</v>
+        <v>-0.001374098248024813</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02988904192265433</v>
+        <v>0.03003978090813282</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005902454178316363</v>
+        <v>-0.0009264978381717803</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0008548569306241482</v>
+        <v>-0.0008516528373584409</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4877218503070156</v>
+        <v>0.4868203176890569</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002698535080955966</v>
+        <v>-0.000386548125241748</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3311958517023161</v>
+        <v>0.3319931735417173</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00155369974752384</v>
+        <v>0.0007756447547022649</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09703028593764688</v>
+        <v>0.09716498945513993</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0005354274495805722</v>
+        <v>-0.003389225829468545</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05401223114488859</v>
+        <v>0.05398398864980603</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001374098248024813</v>
+        <v>0.001949317738791478</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03003978090813282</v>
+        <v>0.03003753066427976</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009264978381717803</v>
+        <v>0.02751159196290587</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0008516528373584409</v>
+        <v>0.0006716274244356057</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4868203176890569</v>
+        <v>0.4863055220826394</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.000386548125241748</v>
+        <v>-0.002320185614849146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3319931735417173</v>
+        <v>0.3320276834075236</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0007756447547022649</v>
+        <v>0.01094749079635737</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09716498945513993</v>
+        <v>0.09677068151956866</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003389225829468545</v>
+        <v>0.00877035976373719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05398398864980603</v>
+        <v>0.05405291717494637</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001949317738791478</v>
+        <v>0.00114442664225245</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03003753066427976</v>
+        <v>0.03084319581532188</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02751159196290587</v>
+        <v>0.0126353790613718</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0006716274244356057</v>
+        <v>0.003806839692087616</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4863055220826394</v>
+        <v>0.4833372157084596</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002320185614849146</v>
+        <v>-0.002325581395348886</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3320276834075236</v>
+        <v>0.3343895858676615</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01094749079635737</v>
+        <v>-0.00651653090560611</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09677068151956866</v>
+        <v>0.09724918316059845</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00877035976373719</v>
+        <v>0.003726046841731723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05405291717494637</v>
+        <v>0.05390955175206044</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00114442664225245</v>
+        <v>-0.0004572473708277514</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03084319581532188</v>
+        <v>0.03111446351122006</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0126353790613718</v>
+        <v>-0.02733214497920367</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003806839692087616</v>
+        <v>-0.003815820124014158</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4833372157084596</v>
+        <v>0.4840602625630518</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002325581395348886</v>
+        <v>0.002331002331002363</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3343895858676615</v>
+        <v>0.3334830370807522</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00651653090560611</v>
+        <v>0.01051413137841228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09724918316059845</v>
+        <v>0.09798543295932143</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003726046841731723</v>
+        <v>-0.002298037829238209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05390955175206044</v>
+        <v>0.05409130443927287</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0004572473708277514</v>
+        <v>-0.002973467520585471</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03111446351122006</v>
+        <v>0.03037996295760167</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02733214497920367</v>
+        <v>0.009163103237629588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003815820124014158</v>
+        <v>0.004526991833103899</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4840602625630518</v>
+        <v>0.4830020617744069</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002331002331002363</v>
+        <v>-0.001550387596899072</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3334830370807522</v>
+        <v>0.3354706486583687</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01051413137841228</v>
+        <v>0.003054600992745238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09798543295932143</v>
+        <v>0.09731969327102849</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002298037829238209</v>
+        <v>-0.003897944720056779</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05409130443927287</v>
+        <v>0.0536874231761179</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002973467520585471</v>
+        <v>-0.0005735260380822504</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03037996295760167</v>
+        <v>0.03052017312007804</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009163103237629588</v>
+        <v>0.002118644067796716</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004526991833103899</v>
+        <v>-6.958796534650702E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4822867827244784</v>
+        <v>0.4805400013825932</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005822981366459756</v>
+        <v>-0.0007809449433814342</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3365187952930627</v>
+        <v>0.3393500824618059</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006185763228016672</v>
+        <v>0.01040385888584128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09694709283742195</v>
+        <v>0.09519153852990846</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02027748132337237</v>
+        <v>0.01053013798111846</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05366036615670945</v>
+        <v>0.05388409919118301</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001951107540456798</v>
+        <v>-0.0003436426116839586</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0305869629883275</v>
+        <v>0.03103427843450953</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01238296587133814</v>
+        <v>0.01223150357995206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002209109760175854</v>
+        <v>0.004518734137212599</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4805400013825932</v>
+        <v>0.4780047497181198</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0007809449433814342</v>
+        <v>0.005080109417741285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3393500824618059</v>
+        <v>0.3413382161828364</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01040385888584128</v>
+        <v>0.005616399887672152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09519153852990846</v>
+        <v>0.09576119916557345</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01053013798111846</v>
+        <v>0.01329500538986705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05388409919118301</v>
+        <v>0.05362327300433496</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003436426116839586</v>
+        <v>0.0006875214850463607</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03103427843450953</v>
+        <v>0.03127256192913518</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01223150357995206</v>
+        <v>0.01296787503684049</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004518734137212599</v>
+        <v>0.006060959836309721</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4780047497181198</v>
+        <v>0.4775387231277281</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005080109417741285</v>
+        <v>-0.003110419906687256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3413382161828364</v>
+        <v>0.3411873850643335</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005616399887672152</v>
+        <v>0.000744670948524595</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09576119916557345</v>
+        <v>0.09644976666265608</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01329500538986705</v>
+        <v>-0.0007092198581560849</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05362327300433496</v>
+        <v>0.0533368675446413</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0006875214850463607</v>
+        <v>-0.002290163746707874</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03127256192913518</v>
+        <v>0.03148725760064104</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01296787503684049</v>
+        <v>0.01192900785568818</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006060959836309721</v>
+        <v>-0.001046216123943178</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4775387231277281</v>
+        <v>0.4765519535147614</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003110419906687256</v>
+        <v>-0.00663026521060861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3411873850643335</v>
+        <v>0.3417990530784732</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000744670948524595</v>
+        <v>-0.01125476699841887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09644976666265608</v>
+        <v>0.09648230391485531</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007092198581560849</v>
+        <v>-0.01312987934705467</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0533368675446413</v>
+        <v>0.05327044978772523</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002290163746707874</v>
+        <v>-0.001032939286124024</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03148725760064104</v>
+        <v>0.03189623970418484</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01192900785568818</v>
+        <v>-0.01236342725704431</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001046216123943178</v>
+        <v>-0.008722707530373963</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4765519535147614</v>
+        <v>0.4775578854398405</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00663026521060861</v>
+        <v>-0.01138594424813488</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3417990530784732</v>
+        <v>0.3409259820063416</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01125476699841887</v>
+        <v>-0.01533396048918145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09648230391485531</v>
+        <v>0.09605334816871629</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01312987934705467</v>
+        <v>-0.02463142754404879</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05327044978772523</v>
+        <v>0.05368369178998476</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001032939286124024</v>
+        <v>-0.004825367647058876</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03189623970418484</v>
+        <v>0.03177909259511678</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01236342725704431</v>
+        <v>-0.006113537117903856</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008722707530373963</v>
+        <v>-0.01348445029416845</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4775578854398405</v>
+        <v>0.4785737418145579</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01138594424813488</v>
+        <v>0.005162827640984746</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3409259820063416</v>
+        <v>0.3402868171400062</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01533396048918145</v>
+        <v>0.01499952230820667</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09605334816871629</v>
+        <v>0.09496800847272185</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02463142754404879</v>
+        <v>0.01437788018433195</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05368369178998476</v>
+        <v>0.05415489726074501</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004825367647058876</v>
+        <v>0.003578850150080859</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03177909259511678</v>
+        <v>0.03201653531196896</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006113537117903856</v>
+        <v>-0.002929115407147131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01348445029416845</v>
+        <v>0.009040404229858634</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4785737418145579</v>
+        <v>0.4754863459309436</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005162827640984746</v>
+        <v>-0.0003929273084479767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3402868171400062</v>
+        <v>0.3432931768373103</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01499952230820667</v>
+        <v>0.0005585552038727126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09496800847272185</v>
+        <v>0.09576347123224024</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01437788018433195</v>
+        <v>0.0008984725965859308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05415489726074501</v>
+        <v>0.05359730667541825</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003578850150080859</v>
+        <v>-0.001834651989450653</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03201653531196896</v>
+        <v>0.03185969932408764</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002929115407147131</v>
+        <v>0.01851851851851838</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009040404229858634</v>
+        <v>0.0005826195015286029</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4754863459309436</v>
+        <v>0.4750227568390289</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003929273084479767</v>
+        <v>0.0003930817610062753</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3432931768373103</v>
+        <v>0.3432849205384004</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0005585552038727126</v>
+        <v>-0.01004838109415707</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09576347123224024</v>
+        <v>0.09579370080868163</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008984725965859308</v>
+        <v>0.0008976660682225024</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05359730667541825</v>
+        <v>0.05346782287378645</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001834651989450653</v>
+        <v>-0.002412406662837374</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03185969932408764</v>
+        <v>0.03243079894010252</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01851851851851838</v>
+        <v>-0.01505681818181803</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0005826195015286029</v>
+        <v>-0.003794034944185953</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4750227568390289</v>
+        <v>0.4782961621081183</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003930817610062753</v>
+        <v>0.006291781360597604</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3432849205384004</v>
+        <v>0.3403815123887585</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01004838109415707</v>
+        <v>0.005482041587901776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09579370080868163</v>
+        <v>0.09612795612706521</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008976660682225024</v>
+        <v>0.01135339700846982</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05346782287378645</v>
+        <v>0.05358521664241381</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002412406662837374</v>
+        <v>0.004272024015702591</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03243079894010252</v>
+        <v>0.03160915273364417</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01505681818181803</v>
+        <v>0.01291837933059292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003794034944185953</v>
+        <v>0.006603955691503627</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4782961621081183</v>
+        <v>0.4781478299030473</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006291781360597604</v>
+        <v>0.0003907776475187141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3403815123887585</v>
+        <v>0.3400021389348842</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005482041587901776</v>
+        <v>0.002726076330137328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09612795612706521</v>
+        <v>0.09658151493136355</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01135339700846982</v>
+        <v>-0.0007127583749108046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05358521664241381</v>
+        <v>0.05346107937538185</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004272024015702591</v>
+        <v>0.00149459645895611</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03160915273364417</v>
+        <v>0.03180743685532318</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01291837933059292</v>
+        <v>0.001449275362318758</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006603955691503627</v>
+        <v>0.001170882458152667</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4781478299030473</v>
+        <v>0.4777752607154719</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003907776475187141</v>
+        <v>0.003125000000000044</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3400021389348842</v>
+        <v>0.3405302897752631</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002726076330137328</v>
+        <v>0.003656135745757849</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09658151493136355</v>
+        <v>0.09639980280965545</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007127583749108046</v>
+        <v>0.01212553495007129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05346107937538185</v>
+        <v>0.05347836523556326</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00149459645895611</v>
+        <v>0.00114797382619658</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03180743685532318</v>
+        <v>0.03181628146404622</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001449275362318758</v>
+        <v>0.01331403762662808</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001170882458152667</v>
+        <v>0.004391966764954791</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4777752607154719</v>
+        <v>0.4771725822826745</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003125000000000044</v>
+        <v>-0.001947040498442409</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3405302897752631</v>
+        <v>0.3402808127200057</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003656135745757849</v>
+        <v>-0.007939473192602242</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09639980280965545</v>
+        <v>0.09714205730066007</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01212553495007129</v>
+        <v>-0.0008809020436926218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05347836523556326</v>
+        <v>0.05330564039810835</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00114797382619658</v>
+        <v>0.0001146657493409364</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03181628146404622</v>
+        <v>0.03209890729855131</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01331403762662808</v>
+        <v>-0.01770922593544688</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004391966764954791</v>
+        <v>-0.004278631840233471</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4771725822826745</v>
+        <v>0.4782899344827649</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001947040498442409</v>
+        <v>-0.0003901677721418473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3402808127200057</v>
+        <v>0.3390297457946013</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007939473192602242</v>
+        <v>0.001788908765653074</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09714205730066007</v>
+        <v>0.09747353804732489</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008809020436926218</v>
+        <v>0.004408393581379011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05330564039810835</v>
+        <v>0.05354083424747259</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0001146657493409364</v>
+        <v>0.0003439578078421324</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03209890729855131</v>
+        <v>0.0316659474278362</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01770922593544688</v>
+        <v>0.006978772899098651</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004278631840233471</v>
+        <v>0.001088986929087543</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4782899344827649</v>
+        <v>0.477583239259485</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003901677721418473</v>
+        <v>0.001951600312255941</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3390297457946013</v>
+        <v>0.3392667819876123</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001788908765653074</v>
+        <v>0.002443609022556359</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09747353804732489</v>
+        <v>0.09779674039480971</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004408393581379011</v>
+        <v>-0.003686797752809112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05354083424747259</v>
+        <v>0.05350098815865235</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003439578078421324</v>
+        <v>-0.0004584527220631296</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0316659474278362</v>
+        <v>0.03185225019944065</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006978772899098651</v>
+        <v>-0.002598902685532867</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001088986929087543</v>
+        <v>0.00129322159342804</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.477583239259485</v>
+        <v>0.4778972637973691</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001951600312255941</v>
+        <v>0.004674717569146836</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3392667819876123</v>
+        <v>0.3396565661514342</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002443609022556359</v>
+        <v>0.001406337896118437</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09779674039480971</v>
+        <v>0.09731033975944933</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003686797752809112</v>
+        <v>0.00845814977973558</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05350098815865235</v>
+        <v>0.05340739289126227</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0004584527220631296</v>
+        <v>-0.0003439972480218101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03185225019944065</v>
+        <v>0.03172843740048502</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002598902685532867</v>
+        <v>-0.00579038795599307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00129322159342804</v>
+        <v>0.003332680106802322</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4778972637973691</v>
+        <v>0.4903322643479985</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004674717569146836</v>
+        <v>0.001942501942501895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3396565661514342</v>
+        <v>0.3313965407449112</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001406337896118437</v>
+        <v>-0.00344346207538393</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09731033975944933</v>
+        <v>0.09099881288805649</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00845814977973558</v>
+        <v>0.0009968433294567092</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05340739289126227</v>
+        <v>0.05811345355235539</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003439972480218101</v>
+        <v>0.0008012820512819374</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03172843740048502</v>
+        <v>0.02915892846667832</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00579038795599307</v>
+        <v>0.004583445672687869</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003332680106802322</v>
+        <v>8.224514738519595E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4903322643479985</v>
+        <v>0.4912443332613747</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001942501942501895</v>
+        <v>0.0007754943776658862</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3313965407449112</v>
+        <v>0.330228229655524</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00344346207538393</v>
+        <v>0.001680986178558053</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09099881288805649</v>
+        <v>0.09108203339241193</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0009968433294567092</v>
+        <v>0.002821576763485378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05811345355235539</v>
+        <v>0.05815523583368254</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0008012820512819374</v>
+        <v>0.00183003545693694</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02915892846667832</v>
+        <v>0.0292901678570068</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004583445672687869</v>
+        <v>0.02603327965646796</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>8.224514738519595E-05</v>
+        <v>0.002062006531904581</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4912443332613747</v>
+        <v>0.4912072690273083</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0007754943776658862</v>
+        <v>0.001546192500966326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.330228229655524</v>
+        <v>0.3299507409354159</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001680986178558053</v>
+        <v>-0.004379017981924971</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09108203339241193</v>
+        <v>0.0907483134255665</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002821576763485378</v>
+        <v>0.003487213550315449</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05815523583368254</v>
+        <v>0.05809700394940518</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00183003545693694</v>
+        <v>-0.0009130335539830892</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0292901678570068</v>
+        <v>0.02999667266230415</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02603327965646796</v>
+        <v>0.004702194357366851</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002062006531904581</v>
+        <v>-0.0002808948127287492</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4912072690273083</v>
+        <v>0.4994294177633177</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001546192500966326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3299507409354159</v>
+        <v>0.323130432671296</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004379017981924971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0907483134255665</v>
+        <v>0.08989705239644538</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003487213550315449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05809700394940518</v>
+        <v>0.05876450735686883</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009130335539830892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02999667266230415</v>
+        <v>0.02877858981207206</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004702194357366851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0002808948127287492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -540,7 +540,7 @@
         <v>0.4994294177633177</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.00153139356814691</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>0.323130432671296</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.002778310021076758</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>0.08989705239644538</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001350438892640193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>0.05876450735686883</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0003408703556413428</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,7 +608,7 @@
         <v>0.02877858981207206</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.02193583767480112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001172728597096162</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4994294177633177</v>
+        <v>0.4996083357787084</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00153139356814691</v>
+        <v>-0.003440366972477071</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.323130432671296</v>
+        <v>0.3236486371782715</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002778310021076758</v>
+        <v>-0.008789528995891915</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08989705239644538</v>
+        <v>0.08991300931506051</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001350438892640193</v>
+        <v>-0.001854349291975699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05876450735686883</v>
+        <v>0.05871568087732786</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003408703556413428</v>
+        <v>-0.002158109950022857</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02877858981207206</v>
+        <v>0.02811433685063163</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02193583767480112</v>
+        <v>-0.005046257359125339</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001172728597096162</v>
+        <v>-0.004998872298062618</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4996083357787084</v>
+        <v>0.5003908899189398</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003440366972477071</v>
+        <v>0.0015343306482547</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3236486371782715</v>
+        <v>0.3224156326719382</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008789528995891915</v>
+        <v>0.01445783132530121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08991300931506051</v>
+        <v>0.09019716329083612</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001854349291975699</v>
+        <v>0.01790238135450095</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05871568087732786</v>
+        <v>0.05888331616017529</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002158109950022857</v>
+        <v>0.001707455890722853</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02811433685063163</v>
+        <v>0.02811299795811049</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005046257359125339</v>
+        <v>0.02423217807833189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004998872298062618</v>
+        <v>0.007825719764527728</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5003908899189398</v>
+        <v>0.4965621713973384</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0015343306482547</v>
+        <v>-0.004209720627631031</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3224156326719382</v>
+        <v>0.3250290934955451</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01445783132530121</v>
+        <v>-0.007099583491101846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09019716329083612</v>
+        <v>0.09182021818462621</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01790238135450095</v>
+        <v>-0.01461892247043362</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05888331616017529</v>
+        <v>0.05837823293739635</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001707455890722853</v>
+        <v>-0.002955553029441838</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02811299795811049</v>
+        <v>0.028210283985094</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02423217807833189</v>
+        <v>-0.0205726994717822</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007825719764527728</v>
+        <v>-0.006493173510651373</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/MAI_holdings.xlsx
+++ b/MAI_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4965621713973384</v>
+        <v>0.4977034582930538</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004209720627631031</v>
+        <v>0.001152959262106235</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3250290934955451</v>
+        <v>0.3248307044347181</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007099583491101846</v>
+        <v>-0.0001906759462294572</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09182021818462621</v>
+        <v>0.09106923387077187</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01461892247043362</v>
+        <v>0.008168028004667427</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05837823293739635</v>
+        <v>0.058586102704357</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002955553029441838</v>
+        <v>0.001596169193934571</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.028210283985094</v>
+        <v>0.02781050069709939</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0205726994717822</v>
+        <v>-0.01532784558614808</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006493173510651373</v>
+        <v>0.0009229887346795529</v>
       </c>
     </row>
     <row r="10" spans="1:5">
